--- a/TimerDisplayTable.xlsx
+++ b/TimerDisplayTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\R\diablo_immortal_event_app\DI_Timer_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED52F85-6875-4C52-925A-2DFD25C326ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B5FBC7-EE4C-4813-B3C9-5C3BA0C1556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34080" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{314A5783-AB47-4A14-A3F0-7080D14E4476}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{314A5783-AB47-4A14-A3F0-7080D14E4476}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Event</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Demon Gates 10PM</t>
+  </si>
+  <si>
+    <t>Ancient Arena 930PM</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBD3C64-1693-4C51-AB75-FB92840AA828}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +487,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimerDisplayTable.xlsx
+++ b/TimerDisplayTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\R\diablo_immortal_event_app\DI_Timer_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B5FBC7-EE4C-4813-B3C9-5C3BA0C1556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B9027-9F85-4498-B32C-CC0716928930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{314A5783-AB47-4A14-A3F0-7080D14E4476}"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{314A5783-AB47-4A14-A3F0-7080D14E4476}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Event</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Ancient Arena 930PM</t>
+  </si>
+  <si>
+    <t>Wrathborne Invasion 12PM</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBD3C64-1693-4C51-AB75-FB92840AA828}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +495,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimerDisplayTable.xlsx
+++ b/TimerDisplayTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\R\diablo_immortal_event_app\DI_Timer_App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fight\Documents\diablo_immortal_event_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B9027-9F85-4498-B32C-CC0716928930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8469BFBD-7E03-44E5-96CC-D391FA3B9492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{314A5783-AB47-4A14-A3F0-7080D14E4476}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{314A5783-AB47-4A14-A3F0-7080D14E4476}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Event</t>
   </si>
@@ -43,37 +43,40 @@
     <t>Countdown</t>
   </si>
   <si>
-    <t>Ancient Nightmare 12PM</t>
-  </si>
-  <si>
-    <t>Ancient Nightmare 830PM</t>
-  </si>
-  <si>
-    <t>Ancient Nightmare 10PM</t>
-  </si>
-  <si>
-    <t>Haunted Carriage 12PM</t>
-  </si>
-  <si>
-    <t>Haunted Carriage 830PM</t>
-  </si>
-  <si>
-    <t>Haunted Carriage 10PM</t>
-  </si>
-  <si>
-    <t>Demon Gates 12PM</t>
-  </si>
-  <si>
-    <t>Demon Gates 830PM</t>
-  </si>
-  <si>
-    <t>Demon Gates 10PM</t>
-  </si>
-  <si>
-    <t>Ancient Arena 930PM</t>
-  </si>
-  <si>
-    <t>Wrathborne Invasion 12PM</t>
+    <t>Wrathborne Invasion 1</t>
+  </si>
+  <si>
+    <t>Wrathborne Invasion 2</t>
+  </si>
+  <si>
+    <t>Ancient Nightmare 1</t>
+  </si>
+  <si>
+    <t>Ancient Nightmare 2</t>
+  </si>
+  <si>
+    <t>Ancient Nightmare 3</t>
+  </si>
+  <si>
+    <t>Haunted Carriage 1</t>
+  </si>
+  <si>
+    <t>Haunted Carriage 2</t>
+  </si>
+  <si>
+    <t>Haunted Carriage 3</t>
+  </si>
+  <si>
+    <t>Demon Gates 1</t>
+  </si>
+  <si>
+    <t>Demon Gates 2</t>
+  </si>
+  <si>
+    <t>Demon Gates 3</t>
+  </si>
+  <si>
+    <t>Ancient Arena</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBD3C64-1693-4C51-AB75-FB92840AA828}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,57 +450,62 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
